--- a/public/downloads/template_akademik.xlsx
+++ b/public/downloads/template_akademik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izzat/Documents/kampusss/kuliah/skripsi/sistem/sipreskom/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5703785E-0702-5643-88D5-46251E723ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536B6F72-73E5-E14B-A5CC-F8F819ABDBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NIM</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>IP</t>
-  </si>
-  <si>
-    <t>&lt;-contoh</t>
   </si>
 </sst>
 </file>
@@ -78,9 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,44 +387,44 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1313621013</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>21</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>3.75</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
